--- a/ClothesShop/Uploads/NhapKho.xlsx
+++ b/ClothesShop/Uploads/NhapKho.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CNPM2\ClothesShop\Uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996170C2-ECCA-40C0-947B-31E00F521B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{654D4086-5A55-4AD3-A3A3-3F469B6F8E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D83EBBCF-3B4E-44D4-9893-1C1F3F110152}"/>
+    <workbookView xWindow="2650" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{D83EBBCF-3B4E-44D4-9893-1C1F3F110152}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>STT</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Nhập kho</t>
+  </si>
+  <si>
+    <t>Tuyết</t>
   </si>
 </sst>
 </file>
@@ -102,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,16 +128,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -471,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC1DD67-11D9-489F-B632-9DA50FEC3A5F}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -484,102 +501,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>111</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>111</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>222</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>222</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>333</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>333</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
